--- a/unisim_hist_match.xlsx
+++ b/unisim_hist_match.xlsx
@@ -1,69 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Press</t>
-  </si>
-  <si>
-    <t>t</t>
-  </si>
-  <si>
-    <t>We</t>
-  </si>
-  <si>
-    <t>We_pred1</t>
-  </si>
-  <si>
-    <t>We_pred2</t>
-  </si>
-  <si>
-    <t>We_pred3</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -78,36 +49,94 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -395,1164 +424,2704 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="2">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Press</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Np</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Wp</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Winj</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Press_b</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Np_b</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Gp_b</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Wp_b</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Winj_b</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Rp</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>We</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>We_pred1</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>We_pred2</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>We_pred3</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>P_pred1</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
         <v>41425</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>332</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="2">
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>335.21914672852</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
         <v>41455</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>332</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>335.21914672852</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
         <v>30</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>-0</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="2">
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
         <v>41486</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>331</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
+        <v>61938</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>333.43814086914</v>
+      </c>
+      <c r="G4" t="n">
+        <v>61938</v>
+      </c>
+      <c r="H4" t="n">
+        <v>7027099.999999999</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>110.7247247247247</v>
+      </c>
+      <c r="L4" t="n">
         <v>61</v>
       </c>
-      <c r="D4">
+      <c r="M4" t="n">
         <v>36188.56608364192</v>
       </c>
-      <c r="E4">
+      <c r="N4" t="n">
         <v>230.6425053888803</v>
       </c>
-      <c r="F4">
+      <c r="O4" t="n">
         <v>-549.1051687902111</v>
       </c>
-      <c r="G4">
+      <c r="P4" t="n">
         <v>439.0285770051307</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="2">
+      <c r="Q4" t="n">
+        <v>330.2723464456662</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
         <v>41517</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="n">
         <v>329</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
+        <v>124403</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>331.74621582031</v>
+      </c>
+      <c r="G5" t="n">
+        <v>124403</v>
+      </c>
+      <c r="H5" t="n">
+        <v>14113900</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>108.7772240219287</v>
+      </c>
+      <c r="L5" t="n">
         <v>92</v>
       </c>
-      <c r="D5">
+      <c r="M5" t="n">
         <v>23145.48476799676</v>
       </c>
-      <c r="E5">
+      <c r="N5" t="n">
         <v>1153.212526944402</v>
       </c>
-      <c r="F5">
+      <c r="O5" t="n">
         <v>-6311.402403006735</v>
       </c>
-      <c r="G5">
+      <c r="P5" t="n">
         <v>2167.252900990416</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="2">
+      <c r="Q5" t="n">
+        <v>328.5582641569347</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
         <v>41547</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="n">
         <v>328</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
+        <v>182423</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>330.20727539062</v>
+      </c>
+      <c r="G6" t="n">
+        <v>182423</v>
+      </c>
+      <c r="H6" t="n">
+        <v>20696500</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>110.2516842722683</v>
+      </c>
+      <c r="L6" t="n">
         <v>122</v>
       </c>
-      <c r="D6">
+      <c r="M6" t="n">
         <v>54514.78515063695</v>
       </c>
-      <c r="E6">
+      <c r="N6" t="n">
         <v>2715.629498933591</v>
       </c>
-      <c r="F6">
+      <c r="O6" t="n">
         <v>78488.05138073595</v>
       </c>
-      <c r="G6">
+      <c r="P6" t="n">
         <v>5011.057058060869</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="2">
+      <c r="Q6" t="n">
+        <v>326.9565811058504</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
         <v>41578</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="n">
         <v>327</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
+        <v>244857</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>328.54779052734</v>
+      </c>
+      <c r="G7" t="n">
+        <v>244857</v>
+      </c>
+      <c r="H7" t="n">
+        <v>27779900</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>109.6833702936816</v>
+      </c>
+      <c r="L7" t="n">
         <v>153</v>
       </c>
-      <c r="D7">
+      <c r="M7" t="n">
         <v>90906.36490364379</v>
       </c>
-      <c r="E7">
+      <c r="N7" t="n">
         <v>4791.412047433514</v>
       </c>
-      <c r="F7">
+      <c r="O7" t="n">
         <v>91329.46970747472</v>
       </c>
-      <c r="G7">
+      <c r="P7" t="n">
         <v>8643.9789338429</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="2">
+      <c r="Q7" t="n">
+        <v>325.2663168452596</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
         <v>41608</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="n">
         <v>325</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
+        <v>304107</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>326.97613525391</v>
+      </c>
+      <c r="G8" t="n">
+        <v>304107</v>
+      </c>
+      <c r="H8" t="n">
+        <v>34502000</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>109.67215815486</v>
+      </c>
+      <c r="L8" t="n">
         <v>183</v>
       </c>
-      <c r="D8">
+      <c r="M8" t="n">
         <v>74137.21182299044</v>
       </c>
-      <c r="E8">
+      <c r="N8" t="n">
         <v>7469.841142272124</v>
       </c>
-      <c r="F8">
+      <c r="O8" t="n">
         <v>101072.5254363788</v>
       </c>
-      <c r="G8">
+      <c r="P8" t="n">
         <v>13215.75167617029</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="2">
+      <c r="Q8" t="n">
+        <v>323.6677310070433</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
         <v>41639</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="n">
         <v>323</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
+        <v>408763</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>324.04373168945</v>
+      </c>
+      <c r="G9" t="n">
+        <v>408763</v>
+      </c>
+      <c r="H9" t="n">
+        <v>46375600</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>111.426819452837</v>
+      </c>
+      <c r="L9" t="n">
         <v>214</v>
       </c>
-      <c r="D9">
+      <c r="M9" t="n">
         <v>122376.3633243817</v>
       </c>
-      <c r="E9">
+      <c r="N9" t="n">
         <v>11160.12122849421</v>
       </c>
-      <c r="F9">
+      <c r="O9" t="n">
         <v>110942.3306304726</v>
       </c>
-      <c r="G9">
+      <c r="P9" t="n">
         <v>19400.65740165955</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="2">
+      <c r="Q9" t="n">
+        <v>320.7703611669696</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
         <v>41670</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="n">
         <v>320</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
+        <v>508707</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>321.31127929688</v>
+      </c>
+      <c r="G10" t="n">
+        <v>508676</v>
+      </c>
+      <c r="H10" t="n">
+        <v>57711000</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>111.5582604524805</v>
+      </c>
+      <c r="L10" t="n">
         <v>245</v>
       </c>
-      <c r="D10">
+      <c r="M10" t="n">
         <v>113517.5504646811</v>
       </c>
-      <c r="E10">
+      <c r="N10" t="n">
         <v>16003.6138416607</v>
       </c>
-      <c r="F10">
+      <c r="O10" t="n">
         <v>121483.8022474989</v>
       </c>
-      <c r="G10">
+      <c r="P10" t="n">
         <v>27387.80010358877</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="2">
+      <c r="Q10" t="n">
+        <v>318.0576268004582</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
         <v>41698</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="n">
         <v>318</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="n">
+        <v>599819</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>318.8420715332</v>
+      </c>
+      <c r="G11" t="n">
+        <v>599788</v>
+      </c>
+      <c r="H11" t="n">
+        <v>68048000</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>111.9220631557186</v>
+      </c>
+      <c r="L11" t="n">
         <v>273</v>
       </c>
-      <c r="D11">
+      <c r="M11" t="n">
         <v>142203.5251310271</v>
       </c>
-      <c r="E11">
+      <c r="N11" t="n">
         <v>21419.99267788988</v>
       </c>
-      <c r="F11">
+      <c r="O11" t="n">
         <v>131743.6111254996</v>
       </c>
-      <c r="G11">
+      <c r="P11" t="n">
         <v>36153.91697954306</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="2">
+      <c r="Q11" t="n">
+        <v>315.5927639463809</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
         <v>41729</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="n">
         <v>314</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="n">
+        <v>757795</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>314.60443115234</v>
+      </c>
+      <c r="G12" t="n">
+        <v>757391</v>
+      </c>
+      <c r="H12" t="n">
+        <v>85923500</v>
+      </c>
+      <c r="I12" t="n">
+        <v>373</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>112.6832481079975</v>
+      </c>
+      <c r="L12" t="n">
         <v>304</v>
       </c>
-      <c r="D12">
+      <c r="M12" t="n">
         <v>166948.8648877243</v>
       </c>
-      <c r="E12">
+      <c r="N12" t="n">
         <v>28800.55285033405</v>
       </c>
-      <c r="F12">
+      <c r="O12" t="n">
         <v>144127.9796967185</v>
       </c>
-      <c r="G12">
+      <c r="P12" t="n">
         <v>47906.09674308955</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="2">
+      <c r="Q12" t="n">
+        <v>311.249526992513</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
         <v>41759</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="n">
         <v>312</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="n">
+        <v>855415</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>312.01968383789</v>
+      </c>
+      <c r="G13" t="n">
+        <v>855011</v>
+      </c>
+      <c r="H13" t="n">
+        <v>96998900.00000001</v>
+      </c>
+      <c r="I13" t="n">
+        <v>373</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>112.2561470163605</v>
+      </c>
+      <c r="L13" t="n">
         <v>334</v>
       </c>
-      <c r="D13">
+      <c r="M13" t="n">
         <v>203231.0780829337</v>
       </c>
-      <c r="E13">
+      <c r="N13" t="n">
         <v>37282.24498398965</v>
       </c>
-      <c r="F13">
+      <c r="O13" t="n">
         <v>157067.4446017955</v>
       </c>
-      <c r="G13">
+      <c r="P13" t="n">
         <v>61119.70977432117</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="2">
+      <c r="Q13" t="n">
+        <v>308.6963544823381</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
         <v>41790</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="n">
         <v>309</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="n">
+        <v>949159</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>309.48944091797</v>
+      </c>
+      <c r="G14" t="n">
+        <v>948755</v>
+      </c>
+      <c r="H14" t="n">
+        <v>107634400</v>
+      </c>
+      <c r="I14" t="n">
+        <v>373</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>112.8811516300219</v>
+      </c>
+      <c r="L14" t="n">
         <v>365</v>
       </c>
-      <c r="D14">
+      <c r="M14" t="n">
         <v>188484.0286776738</v>
       </c>
-      <c r="E14">
+      <c r="N14" t="n">
         <v>47199.87271571151</v>
       </c>
-      <c r="F14">
+      <c r="O14" t="n">
         <v>171003.8602896239</v>
       </c>
-      <c r="G14">
+      <c r="P14" t="n">
         <v>76115.21245078322</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="2">
+      <c r="Q14" t="n">
+        <v>306.2111592181139</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
         <v>41820</v>
       </c>
-      <c r="B15">
+      <c r="B15" t="n">
         <v>305</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="n">
+        <v>1101949</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>305.43493652344</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1100284</v>
+      </c>
+      <c r="H15" t="n">
+        <v>124825900</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1604</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>112.5417791567486</v>
+      </c>
+      <c r="L15" t="n">
         <v>395</v>
       </c>
-      <c r="D15">
+      <c r="M15" t="n">
         <v>203829.6655333533</v>
       </c>
-      <c r="E15">
+      <c r="N15" t="n">
         <v>58359.99394420571</v>
       </c>
-      <c r="F15">
+      <c r="O15" t="n">
         <v>185657.3987998452</v>
       </c>
-      <c r="G15">
+      <c r="P15" t="n">
         <v>92696.52547434367</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="2">
+      <c r="Q15" t="n">
+        <v>302.1370073924173</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
         <v>41851</v>
       </c>
-      <c r="B16">
+      <c r="B16" t="n">
         <v>301</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="n">
+        <v>1257972</v>
+      </c>
+      <c r="D16" t="n">
+        <v>961</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>301.35247802734</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1252156</v>
+      </c>
+      <c r="H16" t="n">
+        <v>142056400</v>
+      </c>
+      <c r="I16" t="n">
+        <v>6685</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>112.9353061912348</v>
+      </c>
+      <c r="L16" t="n">
         <v>426</v>
       </c>
-      <c r="D16">
+      <c r="M16" t="n">
         <v>227894.2851441042</v>
       </c>
-      <c r="E16">
+      <c r="N16" t="n">
         <v>71737.25925676078</v>
       </c>
-      <c r="F16">
+      <c r="O16" t="n">
         <v>202184.9602239818</v>
       </c>
-      <c r="G16">
+      <c r="P16" t="n">
         <v>112271.4896960316</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="2">
+      <c r="Q16" t="n">
+        <v>297.9305883536036</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
         <v>41882</v>
       </c>
-      <c r="B17">
+      <c r="B17" t="n">
         <v>296</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="n">
+        <v>1471159</v>
+      </c>
+      <c r="D17" t="n">
+        <v>3162</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>295.75778198242</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1458496</v>
+      </c>
+      <c r="H17" t="n">
+        <v>165279200</v>
+      </c>
+      <c r="I17" t="n">
+        <v>15733</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>112.7055790706511</v>
+      </c>
+      <c r="L17" t="n">
         <v>457</v>
       </c>
-      <c r="D17">
+      <c r="M17" t="n">
         <v>281480.0190117385</v>
       </c>
-      <c r="E17">
+      <c r="N17" t="n">
         <v>87190.30711781576</v>
       </c>
-      <c r="F17">
+      <c r="O17" t="n">
         <v>220283.5720643968</v>
       </c>
-      <c r="G17">
+      <c r="P17" t="n">
         <v>134554.1805794338</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="2">
+      <c r="Q17" t="n">
+        <v>292.1656120621491</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
         <v>41912</v>
       </c>
-      <c r="B18">
+      <c r="B18" t="n">
         <v>291</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="n">
+        <v>1668949</v>
+      </c>
+      <c r="D18" t="n">
+        <v>5952</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>290.55340576172</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1648888</v>
+      </c>
+      <c r="H18" t="n">
+        <v>186812000</v>
+      </c>
+      <c r="I18" t="n">
+        <v>25921</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>112.2794207612096</v>
+      </c>
+      <c r="L18" t="n">
         <v>487</v>
       </c>
-      <c r="D18">
+      <c r="M18" t="n">
         <v>313034.5171573611</v>
       </c>
-      <c r="E18">
+      <c r="N18" t="n">
         <v>104376.8938096968</v>
       </c>
-      <c r="F18">
+      <c r="O18" t="n">
         <v>239507.0010422748</v>
       </c>
-      <c r="G18">
+      <c r="P18" t="n">
         <v>159022.4684972048</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="2">
+      <c r="Q18" t="n">
+        <v>286.8874998119624</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
         <v>41943</v>
       </c>
-      <c r="B19">
+      <c r="B19" t="n">
         <v>286</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="n">
+        <v>1862885</v>
+      </c>
+      <c r="D19" t="n">
+        <v>10044</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>285.35412597656</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1835962</v>
+      </c>
+      <c r="H19" t="n">
+        <v>208013700</v>
+      </c>
+      <c r="I19" t="n">
+        <v>36875</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>112.3652533570242</v>
+      </c>
+      <c r="L19" t="n">
         <v>518</v>
       </c>
-      <c r="D19">
+      <c r="M19" t="n">
         <v>343937.7062259228</v>
       </c>
-      <c r="E19">
+      <c r="N19" t="n">
         <v>124442.7917785294</v>
       </c>
-      <c r="F19">
+      <c r="O19" t="n">
         <v>261012.0182473342</v>
       </c>
-      <c r="G19">
+      <c r="P19" t="n">
         <v>187115.8011241332</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="2">
+      <c r="Q19" t="n">
+        <v>281.6820924203675</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
         <v>41973</v>
       </c>
-      <c r="B20">
+      <c r="B20" t="n">
         <v>286</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="n">
+        <v>1862885</v>
+      </c>
+      <c r="D20" t="n">
+        <v>10044</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>285.54675292969</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1835962</v>
+      </c>
+      <c r="H20" t="n">
+        <v>208013700</v>
+      </c>
+      <c r="I20" t="n">
+        <v>36875</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>112.3652533570242</v>
+      </c>
+      <c r="L20" t="n">
         <v>548</v>
       </c>
-      <c r="D20">
+      <c r="M20" t="n">
         <v>343937.7062259228</v>
       </c>
-      <c r="E20">
+      <c r="N20" t="n">
         <v>144977.4148389588</v>
       </c>
-      <c r="F20">
+      <c r="O20" t="n">
         <v>282210.2940314322</v>
       </c>
-      <c r="G20">
+      <c r="P20" t="n">
         <v>214729.0278597662</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="2">
+      <c r="Q20" t="n">
+        <v>282.1207135017294</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
         <v>42004</v>
       </c>
-      <c r="B21">
+      <c r="B21" t="n">
         <v>285</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="n">
+        <v>1862885</v>
+      </c>
+      <c r="D21" t="n">
+        <v>10044</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>285.45483398438</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1835962</v>
+      </c>
+      <c r="H21" t="n">
+        <v>208013700</v>
+      </c>
+      <c r="I21" t="n">
+        <v>36875</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>112.3652533570242</v>
+      </c>
+      <c r="L21" t="n">
         <v>579</v>
       </c>
-      <c r="D21">
+      <c r="M21" t="n">
         <v>295147.8072875077</v>
       </c>
-      <c r="E21">
+      <c r="N21" t="n">
         <v>166427.1678401246</v>
       </c>
-      <c r="F21">
+      <c r="O21" t="n">
         <v>303585.2099553472</v>
       </c>
-      <c r="G21">
+      <c r="P21" t="n">
         <v>241917.6847468466</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="2">
+      <c r="Q21" t="n">
+        <v>282.5718233527656</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
         <v>42035</v>
       </c>
-      <c r="B22">
+      <c r="B22" t="n">
         <v>285</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="n">
+        <v>1862885</v>
+      </c>
+      <c r="D22" t="n">
+        <v>10044</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>285.33773803711</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1835962</v>
+      </c>
+      <c r="H22" t="n">
+        <v>208013700</v>
+      </c>
+      <c r="I22" t="n">
+        <v>36875</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>112.3652533570242</v>
+      </c>
+      <c r="L22" t="n">
         <v>610</v>
       </c>
-      <c r="D22">
+      <c r="M22" t="n">
         <v>295147.8072875077</v>
       </c>
-      <c r="E22">
+      <c r="N22" t="n">
         <v>188107.5633466794</v>
       </c>
-      <c r="F22">
+      <c r="O22" t="n">
         <v>324502.2718876187</v>
       </c>
-      <c r="G22">
+      <c r="P22" t="n">
         <v>267818.1678231223</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="2">
+      <c r="Q22" t="n">
+        <v>283.0255162858982</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
         <v>42063</v>
       </c>
-      <c r="B23">
+      <c r="B23" t="n">
         <v>285</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="n">
+        <v>1862885</v>
+      </c>
+      <c r="D23" t="n">
+        <v>10044</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>285.23095703125</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1835962</v>
+      </c>
+      <c r="H23" t="n">
+        <v>208013700</v>
+      </c>
+      <c r="I23" t="n">
+        <v>36875</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>112.3652533570242</v>
+      </c>
+      <c r="L23" t="n">
         <v>638</v>
       </c>
-      <c r="D23">
+      <c r="M23" t="n">
         <v>295147.8072875077</v>
       </c>
-      <c r="E23">
+      <c r="N23" t="n">
         <v>207689.8560622772</v>
       </c>
-      <c r="F23">
+      <c r="O23" t="n">
         <v>342891.4338347064</v>
       </c>
-      <c r="G23">
+      <c r="P23" t="n">
         <v>289794.9727130304</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="2">
+      <c r="Q23" t="n">
+        <v>283.433561684237</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
         <v>42094</v>
       </c>
-      <c r="B24">
+      <c r="B24" t="n">
         <v>281</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="n">
+        <v>2054527</v>
+      </c>
+      <c r="D24" t="n">
+        <v>14353</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>279.74453735352</v>
+      </c>
+      <c r="G24" t="n">
+        <v>2020686</v>
+      </c>
+      <c r="H24" t="n">
+        <v>228957400</v>
+      </c>
+      <c r="I24" t="n">
+        <v>48102</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>112.4479391120195</v>
+      </c>
+      <c r="L24" t="n">
         <v>669</v>
       </c>
-      <c r="D24">
+      <c r="M24" t="n">
         <v>372409.3928360874</v>
       </c>
-      <c r="E24">
+      <c r="N24" t="n">
         <v>230292.8215903875</v>
       </c>
-      <c r="F24">
+      <c r="O24" t="n">
         <v>363535.39757409</v>
       </c>
-      <c r="G24">
+      <c r="P24" t="n">
         <v>314410.0897314338</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="2">
+      <c r="Q24" t="n">
+        <v>278.3235284534259</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
         <v>42124</v>
       </c>
-      <c r="B25">
+      <c r="B25" t="n">
         <v>276</v>
       </c>
-      <c r="C25">
+      <c r="C25" t="n">
+        <v>2226667</v>
+      </c>
+      <c r="D25" t="n">
+        <v>19243</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>275.0632019043</v>
+      </c>
+      <c r="G25" t="n">
+        <v>2186262</v>
+      </c>
+      <c r="H25" t="n">
+        <v>247616600</v>
+      </c>
+      <c r="I25" t="n">
+        <v>59526</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>112.5025416912363</v>
+      </c>
+      <c r="L25" t="n">
         <v>699</v>
       </c>
-      <c r="D25">
+      <c r="M25" t="n">
         <v>374550.5290939612</v>
       </c>
-      <c r="E25">
+      <c r="N25" t="n">
         <v>254175.4810193651</v>
       </c>
-      <c r="F25">
+      <c r="O25" t="n">
         <v>384808.9981877347</v>
       </c>
-      <c r="G25">
+      <c r="P25" t="n">
         <v>340569.07613331</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="2">
+      <c r="Q25" t="n">
+        <v>273.7779387747772</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
         <v>42155</v>
       </c>
-      <c r="B26">
+      <c r="B26" t="n">
         <v>272</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="n">
+        <v>2389293</v>
+      </c>
+      <c r="D26" t="n">
+        <v>25133</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>270.65621948242</v>
+      </c>
+      <c r="G26" t="n">
+        <v>2342414</v>
+      </c>
+      <c r="H26" t="n">
+        <v>265194300</v>
+      </c>
+      <c r="I26" t="n">
+        <v>71859</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>112.5085316032818</v>
+      </c>
+      <c r="L26" t="n">
         <v>730</v>
       </c>
-      <c r="D26">
+      <c r="M26" t="n">
         <v>413077.9599081571</v>
       </c>
-      <c r="E26">
+      <c r="N26" t="n">
         <v>280930.0116444752</v>
       </c>
-      <c r="F26">
+      <c r="O26" t="n">
         <v>408071.9408880579</v>
       </c>
-      <c r="G26">
+      <c r="P26" t="n">
         <v>369861.2023931186</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="2">
+      <c r="Q26" t="n">
+        <v>269.5460652343237</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
         <v>42185</v>
       </c>
-      <c r="B27">
+      <c r="B27" t="n">
         <v>268</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="n">
+        <v>2537193</v>
+      </c>
+      <c r="D27" t="n">
+        <v>31133</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>266.63693237305</v>
+      </c>
+      <c r="G27" t="n">
+        <v>2484020</v>
+      </c>
+      <c r="H27" t="n">
+        <v>281043000</v>
+      </c>
+      <c r="I27" t="n">
+        <v>84183</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>112.4728576028706</v>
+      </c>
+      <c r="L27" t="n">
         <v>760</v>
       </c>
-      <c r="D27">
+      <c r="M27" t="n">
         <v>430979.0854925532</v>
       </c>
-      <c r="E27">
+      <c r="N27" t="n">
         <v>308607.1122911409</v>
       </c>
-      <c r="F27">
+      <c r="O27" t="n">
         <v>431615.5392648986</v>
       </c>
-      <c r="G27">
+      <c r="P27" t="n">
         <v>399837.9262672945</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="2">
+      <c r="Q27" t="n">
+        <v>265.7558075448165</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
         <v>42216</v>
       </c>
-      <c r="B28">
+      <c r="B28" t="n">
         <v>264</v>
       </c>
-      <c r="C28">
+      <c r="C28" t="n">
+        <v>2676197</v>
+      </c>
+      <c r="D28" t="n">
+        <v>37674</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>262.86581420898</v>
+      </c>
+      <c r="G28" t="n">
+        <v>2616496</v>
+      </c>
+      <c r="H28" t="n">
+        <v>295784899.9999999</v>
+      </c>
+      <c r="I28" t="n">
+        <v>97221</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>112.7319562050178</v>
+      </c>
+      <c r="L28" t="n">
         <v>791</v>
       </c>
-      <c r="D28">
+      <c r="M28" t="n">
         <v>440508.4391088947</v>
       </c>
-      <c r="E28">
+      <c r="N28" t="n">
         <v>339051.9230024731</v>
       </c>
-      <c r="F28">
+      <c r="O28" t="n">
         <v>456968.0982075531</v>
       </c>
-      <c r="G28">
+      <c r="P28" t="n">
         <v>432389.3624075041</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="2">
+      <c r="Q28" t="n">
+        <v>262.1928334018446</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
         <v>42247</v>
       </c>
-      <c r="B29">
+      <c r="B29" t="n">
         <v>261</v>
       </c>
-      <c r="C29">
+      <c r="C29" t="n">
+        <v>2800290</v>
+      </c>
+      <c r="D29" t="n">
+        <v>44184</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>259.50143432617</v>
+      </c>
+      <c r="G29" t="n">
+        <v>2735381</v>
+      </c>
+      <c r="H29" t="n">
+        <v>309014100</v>
+      </c>
+      <c r="I29" t="n">
+        <v>108939</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>112.9124901349503</v>
+      </c>
+      <c r="L29" t="n">
         <v>822</v>
       </c>
-      <c r="D29">
+      <c r="M29" t="n">
         <v>477361.4683837439</v>
       </c>
-      <c r="E29">
+      <c r="N29" t="n">
         <v>371111.2312515274</v>
       </c>
-      <c r="F29">
+      <c r="O29" t="n">
         <v>483135.2301869946</v>
       </c>
-      <c r="G29">
+      <c r="P29" t="n">
         <v>465946.1171735001</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="2">
+      <c r="Q29" t="n">
+        <v>259.1017978568518</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
         <v>42277</v>
       </c>
-      <c r="B30">
+      <c r="B30" t="n">
         <v>258</v>
       </c>
-      <c r="C30">
+      <c r="C30" t="n">
+        <v>2909790</v>
+      </c>
+      <c r="D30" t="n">
+        <v>49464</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>256.61572265625</v>
+      </c>
+      <c r="G30" t="n">
+        <v>2839373</v>
+      </c>
+      <c r="H30" t="n">
+        <v>320550300</v>
+      </c>
+      <c r="I30" t="n">
+        <v>119757</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>112.8740895391076</v>
+      </c>
+      <c r="L30" t="n">
         <v>852</v>
       </c>
-      <c r="D30">
+      <c r="M30" t="n">
         <v>490145.66499025</v>
       </c>
-      <c r="E30">
+      <c r="N30" t="n">
         <v>403475.5828141606</v>
       </c>
-      <c r="F30">
+      <c r="O30" t="n">
         <v>509071.3300258872</v>
       </c>
-      <c r="G30">
+      <c r="P30" t="n">
         <v>498941.149351078</v>
       </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="2">
+      <c r="Q30" t="n">
+        <v>256.5111285125622</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
         <v>42308</v>
       </c>
-      <c r="B31">
+      <c r="B31" t="n">
         <v>255</v>
       </c>
-      <c r="C31">
+      <c r="C31" t="n">
+        <v>3012183</v>
+      </c>
+      <c r="D31" t="n">
+        <v>54734</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>254.03244018555</v>
+      </c>
+      <c r="G31" t="n">
+        <v>2937118</v>
+      </c>
+      <c r="H31" t="n">
+        <v>331372300</v>
+      </c>
+      <c r="I31" t="n">
+        <v>129644</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>112.8248021451552</v>
+      </c>
+      <c r="L31" t="n">
         <v>883</v>
       </c>
-      <c r="D31">
+      <c r="M31" t="n">
         <v>492906.7232196811</v>
       </c>
-      <c r="E31">
+      <c r="N31" t="n">
         <v>438302.6011278816</v>
       </c>
-      <c r="F31">
+      <c r="O31" t="n">
         <v>536484.3255136836</v>
       </c>
-      <c r="G31">
+      <c r="P31" t="n">
         <v>533538.4396213224</v>
       </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="2">
+      <c r="Q31" t="n">
+        <v>254.17529516363</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
         <v>42338</v>
       </c>
-      <c r="B32">
+      <c r="B32" t="n">
         <v>253</v>
       </c>
-      <c r="C32">
+      <c r="C32" t="n">
+        <v>3099093</v>
+      </c>
+      <c r="D32" t="n">
+        <v>58964</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>251.99662780762</v>
+      </c>
+      <c r="G32" t="n">
+        <v>3019582</v>
+      </c>
+      <c r="H32" t="n">
+        <v>340495000</v>
+      </c>
+      <c r="I32" t="n">
+        <v>138350</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>112.7016746512609</v>
+      </c>
+      <c r="L32" t="n">
         <v>913</v>
       </c>
-      <c r="D32">
+      <c r="M32" t="n">
         <v>520455.1411496093</v>
       </c>
-      <c r="E32">
+      <c r="N32" t="n">
         <v>473122.1793607835</v>
       </c>
-      <c r="F32">
+      <c r="O32" t="n">
         <v>563443.0015387239</v>
       </c>
-      <c r="G32">
+      <c r="P32" t="n">
         <v>567052.1488124982</v>
       </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="2">
+      <c r="Q32" t="n">
+        <v>252.3280703675955</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
         <v>42369</v>
       </c>
-      <c r="B33">
+      <c r="B33" t="n">
         <v>251</v>
       </c>
-      <c r="C33">
+      <c r="C33" t="n">
+        <v>3186327</v>
+      </c>
+      <c r="D33" t="n">
+        <v>63397</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>250.17747497559</v>
+      </c>
+      <c r="G33" t="n">
+        <v>3102684</v>
+      </c>
+      <c r="H33" t="n">
+        <v>349665399.9999999</v>
+      </c>
+      <c r="I33" t="n">
+        <v>146915</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>112.5228493497372</v>
+      </c>
+      <c r="L33" t="n">
         <v>944</v>
       </c>
-      <c r="D33">
+      <c r="M33" t="n">
         <v>547832.725670252</v>
       </c>
-      <c r="E33">
+      <c r="N33" t="n">
         <v>510024.9802230044</v>
       </c>
-      <c r="F33">
+      <c r="O33" t="n">
         <v>591554.8757727995</v>
       </c>
-      <c r="G33">
+      <c r="P33" t="n">
         <v>601273.8374171676</v>
       </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="2">
+      <c r="Q33" t="n">
+        <v>250.5265990447934</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
         <v>42400</v>
       </c>
-      <c r="B34">
+      <c r="B34" t="n">
         <v>249</v>
       </c>
-      <c r="C34">
+      <c r="C34" t="n">
+        <v>3263269</v>
+      </c>
+      <c r="D34" t="n">
+        <v>67024</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>248.68139648438</v>
+      </c>
+      <c r="G34" t="n">
+        <v>3175681</v>
+      </c>
+      <c r="H34" t="n">
+        <v>357714000</v>
+      </c>
+      <c r="I34" t="n">
+        <v>154486</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>112.4634126086449</v>
+      </c>
+      <c r="L34" t="n">
         <v>975</v>
       </c>
-      <c r="D34">
+      <c r="M34" t="n">
         <v>561596.7396236095</v>
       </c>
-      <c r="E34">
+      <c r="N34" t="n">
         <v>547850.3511067807</v>
       </c>
-      <c r="F34">
+      <c r="O34" t="n">
         <v>619927.7816059615</v>
       </c>
-      <c r="G34">
+      <c r="P34" t="n">
         <v>635077.6534897442</v>
       </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="2">
+      <c r="Q34" t="n">
+        <v>249.0226078876251</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
         <v>42429</v>
       </c>
-      <c r="B35">
+      <c r="B35" t="n">
         <v>247</v>
       </c>
-      <c r="C35">
+      <c r="C35" t="n">
+        <v>3328084</v>
+      </c>
+      <c r="D35" t="n">
+        <v>70475</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>247.48718261719</v>
+      </c>
+      <c r="G35" t="n">
+        <v>3237481</v>
+      </c>
+      <c r="H35" t="n">
+        <v>364524000</v>
+      </c>
+      <c r="I35" t="n">
+        <v>160952</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>112.3989857227161</v>
+      </c>
+      <c r="L35" t="n">
         <v>1004</v>
       </c>
-      <c r="D35">
+      <c r="M35" t="n">
         <v>558106.8058657446</v>
       </c>
-      <c r="E35">
+      <c r="N35" t="n">
         <v>584098.4248569299</v>
       </c>
-      <c r="F35">
+      <c r="O35" t="n">
         <v>646744.608508852</v>
       </c>
-      <c r="G35">
+      <c r="P35" t="n">
         <v>666400.0446027615</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="2">
+      <c r="Q35" t="n">
+        <v>247.8385976130531</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
         <v>42460</v>
       </c>
-      <c r="B36">
+      <c r="B36" t="n">
         <v>246</v>
       </c>
-      <c r="C36">
+      <c r="C36" t="n">
+        <v>3392905</v>
+      </c>
+      <c r="D36" t="n">
+        <v>73637</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>246.3786315918</v>
+      </c>
+      <c r="G36" t="n">
+        <v>3298806</v>
+      </c>
+      <c r="H36" t="n">
+        <v>371275100.0000001</v>
+      </c>
+      <c r="I36" t="n">
+        <v>167611</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>112.3746703783336</v>
+      </c>
+      <c r="L36" t="n">
         <v>1035</v>
       </c>
-      <c r="D36">
+      <c r="M36" t="n">
         <v>603416.0983692436</v>
       </c>
-      <c r="E36">
+      <c r="N36" t="n">
         <v>623538.2932784285</v>
       </c>
-      <c r="F36">
+      <c r="O36" t="n">
         <v>675513.3632903696</v>
       </c>
-      <c r="G36">
+      <c r="P36" t="n">
         <v>699139.8155011539</v>
       </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="2">
+      <c r="Q36" t="n">
+        <v>246.714302400593</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
         <v>42490</v>
       </c>
-      <c r="B37">
+      <c r="B37" t="n">
         <v>245</v>
       </c>
-      <c r="C37">
+      <c r="C37" t="n">
+        <v>3455425</v>
+      </c>
+      <c r="D37" t="n">
+        <v>76757</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>245.41052246094</v>
+      </c>
+      <c r="G37" t="n">
+        <v>3357710</v>
+      </c>
+      <c r="H37" t="n">
+        <v>377749100</v>
+      </c>
+      <c r="I37" t="n">
+        <v>174317</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>112.247393880637</v>
+      </c>
+      <c r="L37" t="n">
         <v>1065</v>
       </c>
-      <c r="D37">
+      <c r="M37" t="n">
         <v>643845.9934011772</v>
       </c>
-      <c r="E37">
+      <c r="N37" t="n">
         <v>662152.3127290184</v>
       </c>
-      <c r="F37">
+      <c r="O37" t="n">
         <v>703313.2009746792</v>
       </c>
-      <c r="G37">
+      <c r="P37" t="n">
         <v>729692.4222373051</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="2">
+      <c r="Q37" t="n">
+        <v>245.6737963176442</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
         <v>42521</v>
       </c>
-      <c r="B38">
+      <c r="B38" t="n">
         <v>244</v>
       </c>
-      <c r="C38">
+      <c r="C38" t="n">
+        <v>3514170</v>
+      </c>
+      <c r="D38" t="n">
+        <v>79950</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>244.53607177734</v>
+      </c>
+      <c r="G38" t="n">
+        <v>3413273</v>
+      </c>
+      <c r="H38" t="n">
+        <v>383853100</v>
+      </c>
+      <c r="I38" t="n">
+        <v>180692</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>112.215876579676</v>
+      </c>
+      <c r="L38" t="n">
         <v>1096</v>
       </c>
-      <c r="D38">
+      <c r="M38" t="n">
         <v>680532.4050185541</v>
       </c>
-      <c r="E38">
+      <c r="N38" t="n">
         <v>702514.7511720725</v>
       </c>
-      <c r="F38">
+      <c r="O38" t="n">
         <v>731996.9949333261</v>
       </c>
-      <c r="G38">
+      <c r="P38" t="n">
         <v>760167.5591502453</v>
       </c>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="2">
+      <c r="Q38" t="n">
+        <v>244.7462530444715</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
         <v>42551</v>
       </c>
-      <c r="B39">
+      <c r="B39" t="n">
         <v>243</v>
       </c>
-      <c r="C39">
+      <c r="C39" t="n">
+        <v>3569070</v>
+      </c>
+      <c r="D39" t="n">
+        <v>82770</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>243.77949523926</v>
+      </c>
+      <c r="G39" t="n">
+        <v>3464993</v>
+      </c>
+      <c r="H39" t="n">
+        <v>389528700</v>
+      </c>
+      <c r="I39" t="n">
+        <v>186752</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>112.2062937964232</v>
+      </c>
+      <c r="L39" t="n">
         <v>1126</v>
       </c>
-      <c r="D39">
+      <c r="M39" t="n">
         <v>711807.9138228586</v>
       </c>
-      <c r="E39">
+      <c r="N39" t="n">
         <v>742021.580320942</v>
       </c>
-      <c r="F39">
+      <c r="O39" t="n">
         <v>759736.0116051692</v>
       </c>
-      <c r="G39">
+      <c r="P39" t="n">
         <v>788665.6578726306</v>
       </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="2">
+      <c r="Q39" t="n">
+        <v>243.9121391439857</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
         <v>42582</v>
       </c>
-      <c r="B40">
+      <c r="B40" t="n">
         <v>242</v>
       </c>
-      <c r="C40">
+      <c r="C40" t="n">
+        <v>3621956</v>
+      </c>
+      <c r="D40" t="n">
+        <v>85281</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>243.08889770508</v>
+      </c>
+      <c r="G40" t="n">
+        <v>3514246</v>
+      </c>
+      <c r="H40" t="n">
+        <v>394931300.0000001</v>
+      </c>
+      <c r="I40" t="n">
+        <v>192896</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>112.1921892480196</v>
+      </c>
+      <c r="L40" t="n">
         <v>1157</v>
       </c>
-      <c r="D40">
+      <c r="M40" t="n">
         <v>739883.9206276285</v>
       </c>
-      <c r="E40">
+      <c r="N40" t="n">
         <v>783306.5887855515</v>
       </c>
-      <c r="F40">
+      <c r="O40" t="n">
         <v>788378.0531390865</v>
       </c>
-      <c r="G40">
+      <c r="P40" t="n">
         <v>817150.541120019</v>
       </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="2">
+      <c r="Q40" t="n">
+        <v>243.1794466059435</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
         <v>42613</v>
       </c>
-      <c r="B41">
+      <c r="B41" t="n">
         <v>241</v>
       </c>
-      <c r="C41">
+      <c r="C41" t="n">
+        <v>3675679</v>
+      </c>
+      <c r="D41" t="n">
+        <v>87854</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>242.45294189453</v>
+      </c>
+      <c r="G41" t="n">
+        <v>3564613</v>
+      </c>
+      <c r="H41" t="n">
+        <v>400446600</v>
+      </c>
+      <c r="I41" t="n">
+        <v>198825</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>112.0991299838751</v>
+      </c>
+      <c r="L41" t="n">
         <v>1188</v>
       </c>
-      <c r="D41">
+      <c r="M41" t="n">
         <v>767867.0895033851</v>
       </c>
-      <c r="E41">
+      <c r="N41" t="n">
         <v>825052.8822609389</v>
       </c>
-      <c r="F41">
+      <c r="O41" t="n">
         <v>817007.9113059459</v>
       </c>
-      <c r="G41">
+      <c r="P41" t="n">
         <v>844703.934305985</v>
       </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="2">
+      <c r="Q41" t="n">
+        <v>242.4568145166201</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
         <v>42643</v>
       </c>
-      <c r="B42">
+      <c r="B42" t="n">
         <v>241</v>
       </c>
-      <c r="C42">
+      <c r="C42" t="n">
+        <v>3723739</v>
+      </c>
+      <c r="D42" t="n">
+        <v>90284</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>241.91860961914</v>
+      </c>
+      <c r="G42" t="n">
+        <v>3609657</v>
+      </c>
+      <c r="H42" t="n">
+        <v>405376600</v>
+      </c>
+      <c r="I42" t="n">
+        <v>204241</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>112.0482633181327</v>
+      </c>
+      <c r="L42" t="n">
         <v>1218</v>
       </c>
-      <c r="D42">
+      <c r="M42" t="n">
         <v>836876.4696815237</v>
       </c>
-      <c r="E42">
+      <c r="N42" t="n">
         <v>865675.7235326578</v>
       </c>
-      <c r="F42">
+      <c r="O42" t="n">
         <v>844569.1179172078</v>
       </c>
-      <c r="G42">
+      <c r="P42" t="n">
         <v>870126.074226371</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="2">
+      <c r="Q42" t="n">
+        <v>241.8667526241181</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
         <v>42674</v>
       </c>
-      <c r="B43">
+      <c r="B43" t="n">
         <v>240</v>
       </c>
-      <c r="C43">
+      <c r="C43" t="n">
+        <v>3771417</v>
+      </c>
+      <c r="D43" t="n">
+        <v>92795</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>241.43531799316</v>
+      </c>
+      <c r="G43" t="n">
+        <v>3654457</v>
+      </c>
+      <c r="H43" t="n">
+        <v>410276400</v>
+      </c>
+      <c r="I43" t="n">
+        <v>209661</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>112.061043103958</v>
+      </c>
+      <c r="L43" t="n">
         <v>1249</v>
       </c>
-      <c r="D43">
+      <c r="M43" t="n">
         <v>858111.2919415487</v>
       </c>
-      <c r="E43">
+      <c r="N43" t="n">
         <v>907883.3020188229</v>
       </c>
-      <c r="F43">
+      <c r="O43" t="n">
         <v>872899.9273086862</v>
       </c>
-      <c r="G43">
+      <c r="P43" t="n">
         <v>895192.170122514</v>
       </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="2">
+      <c r="Q43" t="n">
+        <v>241.2940056594363</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
         <v>42704</v>
       </c>
-      <c r="B44">
+      <c r="B44" t="n">
         <v>240</v>
       </c>
-      <c r="C44">
+      <c r="C44" t="n">
+        <v>3816447</v>
+      </c>
+      <c r="D44" t="n">
+        <v>94865</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>241.03121948242</v>
+      </c>
+      <c r="G44" t="n">
+        <v>3696677</v>
+      </c>
+      <c r="H44" t="n">
+        <v>414889600</v>
+      </c>
+      <c r="I44" t="n">
+        <v>214511</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>112.0747865750527</v>
+      </c>
+      <c r="L44" t="n">
         <v>1279</v>
       </c>
-      <c r="D44">
+      <c r="M44" t="n">
         <v>923625.5473294929</v>
       </c>
-      <c r="E44">
+      <c r="N44" t="n">
         <v>948952.5481396816</v>
       </c>
-      <c r="F44">
+      <c r="O44" t="n">
         <v>900191.6185145788</v>
       </c>
-      <c r="G44">
+      <c r="P44" t="n">
         <v>918357.7987269936</v>
       </c>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="2">
+      <c r="Q44" t="n">
+        <v>240.7855932299418</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
         <v>42735</v>
       </c>
-      <c r="B45">
+      <c r="B45" t="n">
         <v>239</v>
       </c>
-      <c r="C45">
+      <c r="C45" t="n">
+        <v>3861645</v>
+      </c>
+      <c r="D45" t="n">
+        <v>97128</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>240.6643371582</v>
+      </c>
+      <c r="G45" t="n">
+        <v>3739136</v>
+      </c>
+      <c r="H45" t="n">
+        <v>419525000</v>
+      </c>
+      <c r="I45" t="n">
+        <v>219482</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>112.0147553697971</v>
+      </c>
+      <c r="L45" t="n">
         <v>1310</v>
       </c>
-      <c r="D45">
+      <c r="M45" t="n">
         <v>939858.2716582613</v>
       </c>
-      <c r="E45">
+      <c r="N45" t="n">
         <v>991621.4116366245</v>
       </c>
-      <c r="F45">
+      <c r="O45" t="n">
         <v>928263.7017260571</v>
       </c>
-      <c r="G45">
+      <c r="P45" t="n">
         <v>941237.9552703814</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="2">
+      <c r="Q45" t="n">
+        <v>240.3255979236856</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
         <v>42766</v>
       </c>
-      <c r="B46">
+      <c r="B46" t="n">
         <v>239</v>
       </c>
-      <c r="C46">
+      <c r="C46" t="n">
+        <v>3901232</v>
+      </c>
+      <c r="D46" t="n">
+        <v>99236</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>240.35803222656</v>
+      </c>
+      <c r="G46" t="n">
+        <v>3775968</v>
+      </c>
+      <c r="H46" t="n">
+        <v>423541000</v>
+      </c>
+      <c r="I46" t="n">
+        <v>224376</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>112.0011447665763</v>
+      </c>
+      <c r="L46" t="n">
         <v>1341</v>
       </c>
-      <c r="D46">
+      <c r="M46" t="n">
         <v>997285.177252016</v>
       </c>
-      <c r="E46">
+      <c r="N46" t="n">
         <v>1034520.917638956</v>
       </c>
-      <c r="F46">
+      <c r="O46" t="n">
         <v>956215.4580933101</v>
       </c>
-      <c r="G46">
+      <c r="P46" t="n">
         <v>963103.6422948835</v>
       </c>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="2">
+      <c r="Q46" t="n">
+        <v>240.0207009598719</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
         <v>42794</v>
       </c>
-      <c r="B47">
+      <c r="B47" t="n">
         <v>239</v>
       </c>
-      <c r="C47">
+      <c r="C47" t="n">
+        <v>3935560</v>
+      </c>
+      <c r="D47" t="n">
+        <v>101000</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>240.10444641113</v>
+      </c>
+      <c r="G47" t="n">
+        <v>3807795</v>
+      </c>
+      <c r="H47" t="n">
+        <v>427010200</v>
+      </c>
+      <c r="I47" t="n">
+        <v>228641</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>111.9764897498704</v>
+      </c>
+      <c r="L47" t="n">
         <v>1369</v>
       </c>
-      <c r="D47">
+      <c r="M47" t="n">
         <v>1046777.559976481</v>
       </c>
-      <c r="E47">
+      <c r="N47" t="n">
         <v>1073268.858544288</v>
       </c>
-      <c r="F47">
+      <c r="O47" t="n">
         <v>981248.9916755338</v>
       </c>
-      <c r="G47">
+      <c r="P47" t="n">
         <v>981656.8845686322</v>
       </c>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="2">
+      <c r="Q47" t="n">
+        <v>239.7953145698863</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
         <v>42825</v>
       </c>
-      <c r="B48">
+      <c r="B48" t="n">
         <v>238</v>
       </c>
-      <c r="C48">
+      <c r="C48" t="n">
+        <v>3976697</v>
+      </c>
+      <c r="D48" t="n">
+        <v>103294</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>239.81303405762</v>
+      </c>
+      <c r="G48" t="n">
+        <v>3846324</v>
+      </c>
+      <c r="H48" t="n">
+        <v>431209800</v>
+      </c>
+      <c r="I48" t="n">
+        <v>233512</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>112.0019822983748</v>
+      </c>
+      <c r="L48" t="n">
         <v>1400</v>
       </c>
-      <c r="D48">
+      <c r="M48" t="n">
         <v>1058908.830277056</v>
       </c>
-      <c r="E48">
+      <c r="N48" t="n">
         <v>1116399.007052009</v>
       </c>
-      <c r="F48">
+      <c r="O48" t="n">
         <v>1008861.024117865</v>
       </c>
-      <c r="G48">
+      <c r="P48" t="n">
         <v>1001393.923823103</v>
       </c>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="2">
+      <c r="Q48" t="n">
+        <v>239.4294913706046</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
         <v>42855</v>
       </c>
-      <c r="B49">
+      <c r="B49" t="n">
         <v>238</v>
       </c>
-      <c r="C49">
+      <c r="C49" t="n">
+        <v>4016567</v>
+      </c>
+      <c r="D49" t="n">
+        <v>105244</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>239.54020690918</v>
+      </c>
+      <c r="G49" t="n">
+        <v>3883483</v>
+      </c>
+      <c r="H49" t="n">
+        <v>435255500</v>
+      </c>
+      <c r="I49" t="n">
+        <v>238203</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
+        <v>111.9803919615931</v>
+      </c>
+      <c r="L49" t="n">
         <v>1430</v>
       </c>
-      <c r="D49">
+      <c r="M49" t="n">
         <v>1116418.475525748</v>
       </c>
-      <c r="E49">
+      <c r="N49" t="n">
         <v>1158361.062871147</v>
       </c>
-      <c r="F49">
+      <c r="O49" t="n">
         <v>1035496.542570497</v>
       </c>
-      <c r="G49">
+      <c r="P49" t="n">
         <v>1019724.956794707</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="2">
+      <c r="Q49" t="n">
+        <v>239.1031379068423</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
         <v>42886</v>
       </c>
-      <c r="B50">
+      <c r="B50" t="n">
         <v>238</v>
       </c>
-      <c r="C50">
+      <c r="C50" t="n">
+        <v>4055999</v>
+      </c>
+      <c r="D50" t="n">
+        <v>107476</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>239.27383422852</v>
+      </c>
+      <c r="G50" t="n">
+        <v>3920508</v>
+      </c>
+      <c r="H50" t="n">
+        <v>439283900</v>
+      </c>
+      <c r="I50" t="n">
+        <v>242842</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
+        <v>111.9656328810732</v>
+      </c>
+      <c r="L50" t="n">
         <v>1461</v>
       </c>
-      <c r="D50">
+      <c r="M50" t="n">
         <v>1173723.616129026</v>
       </c>
-      <c r="E50">
+      <c r="N50" t="n">
         <v>1201721.853884256</v>
       </c>
-      <c r="F50">
+      <c r="O50" t="n">
         <v>1062784.923906625</v>
       </c>
-      <c r="G50">
+      <c r="P50" t="n">
         <v>1037482.690189094</v>
       </c>
+      <c r="Q50" t="n">
+        <v>238.8110808827253</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>